--- a/data/interim/economical/calibration_data/NBB_synthetic_GDP.xlsx
+++ b/data/interim/economical/calibration_data/NBB_synthetic_GDP.xlsx
@@ -214,7 +214,7 @@
     <t xml:space="preserve">97-98</t>
   </si>
   <si>
-    <t xml:space="preserve">Belgium</t>
+    <t xml:space="preserve">BE</t>
   </si>
 </sst>
 </file>
@@ -320,12 +320,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,209 +436,209 @@
   </sheetPr>
   <dimension ref="A1:BM54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BM2" activeCellId="0" sqref="BM2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AY1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BA1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BB1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BC1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="BD1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BE1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BF1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BG1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BH1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BI1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="0" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BK1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="0" t="s">
+      <c r="BL1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="0" t="s">
+      <c r="BM1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -642,86 +646,86 @@
       <c r="A2" s="1" t="n">
         <v>43876</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="0" t="n">
+      <c r="B2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="2" t="n">
         <v>-11</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="2" t="n">
         <v>-4.6</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="2" t="n">
         <v>-18.7</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="2" t="n">
         <v>-10.8</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2" s="2" t="n">
         <v>6.6</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2" s="2" t="n">
         <v>-4.2</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2" s="2" t="n">
         <v>-4.2</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2" s="2" t="n">
         <v>-14.6</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AB2" s="2" t="n">
         <v>-1.45</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AC2" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AF2" s="2" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2" s="2" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AH2" s="2" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AI2" s="2" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="0" t="n">
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="2" t="n">
         <v>30.6</v>
       </c>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AY2" s="0" t="n">
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AY2" s="2" t="n">
         <v>12.6</v>
       </c>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BM2" s="0" t="n">
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BM2" s="2" t="n">
         <v>-2.7</v>
       </c>
     </row>
@@ -729,86 +733,86 @@
       <c r="A3" s="1" t="n">
         <v>43905</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="F3" s="0" t="n">
+      <c r="B3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="F3" s="2" t="n">
         <v>-9.8</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="2" t="n">
         <v>-9.7</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="2" t="n">
         <v>-6.6</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="2" t="n">
         <v>-4.6</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="2" t="n">
         <v>-11.7</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" s="2" t="n">
         <v>-13.4</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q3" s="2" t="n">
         <v>-10.7</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="R3" s="2" t="n">
         <v>-3.4</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="S3" s="2" t="n">
         <v>-3.4</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="T3" s="2" t="n">
         <v>-21.5</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="U3" s="2" t="n">
         <v>-3.7</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="V3" s="2" t="n">
         <v>-3.7</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AB3" s="2" t="n">
         <v>-4.65</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AC3" s="2" t="n">
         <v>-18.8</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AF3" s="2" t="n">
         <v>-21.2</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AG3" s="2" t="n">
         <v>-21.2</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AH3" s="2" t="n">
         <v>-21.2</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AI3" s="2" t="n">
         <v>-21.2</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>-21.2</v>
       </c>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="0" t="n">
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="2" t="n">
         <v>-11.8</v>
       </c>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AY3" s="0" t="n">
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AY3" s="2" t="n">
         <v>-46.4</v>
       </c>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BM3" s="0" t="n">
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BM3" s="2" t="n">
         <v>-10.9</v>
       </c>
     </row>
@@ -816,85 +820,85 @@
       <c r="A4" s="1" t="n">
         <v>43936</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="F4" s="0" t="n">
+      <c r="B4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="F4" s="2" t="n">
         <v>-26</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="2" t="n">
         <v>-45.1</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="2" t="n">
         <v>-17.8</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="2" t="n">
         <v>-30</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" s="2" t="n">
         <v>-16.9</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4" s="2" t="n">
         <v>-17.1</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4" s="2" t="n">
         <v>-30.8</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4" s="2" t="n">
         <v>-30.8</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="T4" s="2" t="n">
         <v>-32.5</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="U4" s="2" t="n">
         <v>-55.6</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="V4" s="2" t="n">
         <v>-55.6</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AB4" s="2" t="n">
         <v>-31.6</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AC4" s="2" t="n">
         <v>-56.1</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AF4" s="2" t="n">
         <v>-66.2</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AG4" s="2" t="n">
         <v>-66.2</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AH4" s="2" t="n">
         <v>-66.2</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AI4" s="2" t="n">
         <v>-66.2</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>-66.2</v>
       </c>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="0" t="n">
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="2" t="n">
         <v>-55.9</v>
       </c>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AY4" s="0" t="n">
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AY4" s="2" t="n">
         <v>-79.4</v>
       </c>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="2"/>
-      <c r="BK4" s="2"/>
-      <c r="BM4" s="0" t="n">
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BM4" s="2" t="n">
         <v>-36.1</v>
       </c>
     </row>
@@ -902,85 +906,85 @@
       <c r="A5" s="1" t="n">
         <v>43966</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="F5" s="0" t="n">
+      <c r="B5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="F5" s="2" t="n">
         <v>-25.6</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="2" t="n">
         <v>-41.5</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="2" t="n">
         <v>-34</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="2" t="n">
         <v>-17.5</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="2" t="n">
         <v>-44.2</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" s="2" t="n">
         <v>-19.8</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5" s="2" t="n">
         <v>-20.7</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5" s="2" t="n">
         <v>-37.8</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5" s="2" t="n">
         <v>-37.8</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="T5" s="2" t="n">
         <v>-40.4</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="U5" s="2" t="n">
         <v>-50.3</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="V5" s="2" t="n">
         <v>-50.3</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AB5" s="2" t="n">
         <v>-26.65</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AC5" s="2" t="n">
         <v>-53</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AF5" s="2" t="n">
         <v>-32</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AG5" s="2" t="n">
         <v>-32</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AH5" s="2" t="n">
         <v>-32</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AI5" s="2" t="n">
         <v>-32</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>-32</v>
       </c>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="0" t="n">
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="2" t="n">
         <v>-41.4</v>
       </c>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AY5" s="0" t="n">
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AY5" s="2" t="n">
         <v>-67.5</v>
       </c>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="2"/>
-      <c r="BG5" s="2"/>
-      <c r="BH5" s="2"/>
-      <c r="BK5" s="2"/>
-      <c r="BM5" s="0" t="n">
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BM5" s="2" t="n">
         <v>-34.4</v>
       </c>
     </row>
@@ -988,85 +992,85 @@
       <c r="A6" s="1" t="n">
         <v>43997</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="F6" s="0" t="n">
+      <c r="B6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="2" t="n">
         <v>-19.8</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="2" t="n">
         <v>-41.6</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="2" t="n">
         <v>-30.8</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="2" t="n">
         <v>-14.4</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="2" t="n">
         <v>-44.3</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="2" t="n">
         <v>-21.6</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6" s="2" t="n">
         <v>-15.3</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6" s="2" t="n">
         <v>-43.2</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6" s="2" t="n">
         <v>-43.2</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="T6" s="2" t="n">
         <v>-33.7</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="U6" s="2" t="n">
         <v>-6.8</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="V6" s="2" t="n">
         <v>-6.8</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AB6" s="2" t="n">
         <v>-8.15</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AC6" s="2" t="n">
         <v>-58</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AF6" s="2" t="n">
         <v>-0.5</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AG6" s="2" t="n">
         <v>-0.5</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AH6" s="2" t="n">
         <v>-0.5</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AI6" s="2" t="n">
         <v>-0.5</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>-0.5</v>
       </c>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="0" t="n">
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="2" t="n">
         <v>-4.4</v>
       </c>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AY6" s="0" t="n">
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AY6" s="2" t="n">
         <v>-33.1</v>
       </c>
-      <c r="AZ6" s="2"/>
-      <c r="BA6" s="2"/>
-      <c r="BG6" s="2"/>
-      <c r="BH6" s="2"/>
-      <c r="BK6" s="2"/>
-      <c r="BM6" s="0" t="n">
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BM6" s="2" t="n">
         <v>-22.9</v>
       </c>
     </row>
@@ -1074,85 +1078,85 @@
       <c r="A7" s="1" t="n">
         <v>44027</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="0" t="n">
+      <c r="B7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="2" t="n">
         <v>-11.2</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="2" t="n">
         <v>-25.5</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="2" t="n">
         <v>-27.3</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="2" t="n">
         <v>-10.8</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="2" t="n">
         <v>-26.3</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="2" t="n">
         <v>-22.2</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7" s="2" t="n">
         <v>-11.9</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7" s="2" t="n">
         <v>-22.8</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7" s="2" t="n">
         <v>-22.8</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="T7" s="2" t="n">
         <v>-32.2</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="U7" s="2" t="n">
         <v>-12.7</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="V7" s="2" t="n">
         <v>-12.7</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AB7" s="2" t="n">
         <v>-3.75</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AC7" s="2" t="n">
         <v>-58.9</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AF7" s="2" t="n">
         <v>5.4</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AG7" s="2" t="n">
         <v>5.4</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AH7" s="2" t="n">
         <v>5.4</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AI7" s="2" t="n">
         <v>5.4</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>5.4</v>
       </c>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="0" t="n">
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AY7" s="0" t="n">
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AY7" s="2" t="n">
         <v>-23.7</v>
       </c>
-      <c r="AZ7" s="2"/>
-      <c r="BA7" s="2"/>
-      <c r="BG7" s="2"/>
-      <c r="BH7" s="2"/>
-      <c r="BK7" s="2"/>
-      <c r="BM7" s="0" t="n">
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BM7" s="2" t="n">
         <v>-13.9</v>
       </c>
     </row>
@@ -1160,85 +1164,85 @@
       <c r="A8" s="1" t="n">
         <v>44058</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="0" t="n">
+      <c r="B8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="2" t="n">
         <v>-28.3</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="2" t="n">
         <v>-29.5</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="2" t="n">
         <v>-7.7</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="2" t="n">
         <v>-23.3</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" s="2" t="n">
         <v>-21.7</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8" s="2" t="n">
         <v>-10.1</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8" s="2" t="n">
         <v>-19.2</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8" s="2" t="n">
         <v>-19.2</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T8" s="2" t="n">
         <v>-24.6</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="U8" s="2" t="n">
         <v>-10.5</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8" s="2" t="n">
         <v>-10.5</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AB8" s="2" t="n">
         <v>-8.7</v>
       </c>
-      <c r="AC8" s="0" t="n">
+      <c r="AC8" s="2" t="n">
         <v>-56.4</v>
       </c>
-      <c r="AF8" s="0" t="n">
+      <c r="AF8" s="2" t="n">
         <v>-5</v>
       </c>
-      <c r="AG8" s="0" t="n">
+      <c r="AG8" s="2" t="n">
         <v>-5</v>
       </c>
-      <c r="AH8" s="0" t="n">
+      <c r="AH8" s="2" t="n">
         <v>-5</v>
       </c>
-      <c r="AI8" s="0" t="n">
+      <c r="AI8" s="2" t="n">
         <v>-5</v>
       </c>
-      <c r="AJ8" s="0" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>-5</v>
       </c>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="0" t="n">
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="2" t="n">
         <v>18.6</v>
       </c>
-      <c r="AP8" s="2"/>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
-      <c r="AY8" s="0" t="n">
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AY8" s="2" t="n">
         <v>-39.1</v>
       </c>
-      <c r="AZ8" s="2"/>
-      <c r="BA8" s="2"/>
-      <c r="BG8" s="2"/>
-      <c r="BH8" s="2"/>
-      <c r="BK8" s="2"/>
-      <c r="BM8" s="0" t="n">
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BM8" s="2" t="n">
         <v>-12</v>
       </c>
     </row>
@@ -1246,85 +1250,85 @@
       <c r="A9" s="1" t="n">
         <v>44089</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="F9" s="0" t="n">
+      <c r="B9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="2" t="n">
         <v>-15.5</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="2" t="n">
         <v>-22.1</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="2" t="n">
         <v>-27.6</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="2" t="n">
         <v>-3.5</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9" s="2" t="n">
         <v>-34.6</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" s="2" t="n">
         <v>-21</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9" s="2" t="n">
         <v>-5</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9" s="2" t="n">
         <v>-4.8</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9" s="2" t="n">
         <v>-4.8</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="T9" s="2" t="n">
         <v>-20.2</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="U9" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="V9" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AB9" s="2" t="n">
         <v>-9.5</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AC9" s="2" t="n">
         <v>-82.8</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AF9" s="2" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AG9" s="2" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AH9" s="2" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AI9" s="2" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AJ9" s="2" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="0" t="n">
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="2" t="n">
         <v>13.4</v>
       </c>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AY9" s="0" t="n">
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AY9" s="2" t="n">
         <v>-18.8</v>
       </c>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2"/>
-      <c r="BK9" s="2"/>
-      <c r="BM9" s="0" t="n">
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BM9" s="2" t="n">
         <v>-10.8</v>
       </c>
     </row>
@@ -1332,85 +1336,85 @@
       <c r="A10" s="1" t="n">
         <v>44119</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="F10" s="0" t="n">
+      <c r="B10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="2" t="n">
         <v>-14.6</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="2" t="n">
         <v>-14.3</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="2" t="n">
         <v>-27.3</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="2" t="n">
         <v>-35.5</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10" s="2" t="n">
         <v>-20.5</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10" s="2" t="n">
         <v>-1.1</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10" s="2" t="n">
         <v>-9.1</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10" s="2" t="n">
         <v>-9.1</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="T10" s="2" t="n">
         <v>-23.3</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="U10" s="2" t="n">
         <v>10.3</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="V10" s="2" t="n">
         <v>10.3</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AB10" s="2" t="n">
         <v>-9.15</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AC10" s="2" t="n">
         <v>-60.2</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AF10" s="2" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AG10" s="2" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AH10" s="2" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AI10" s="2" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AJ10" s="2" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="0" t="n">
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="2" t="n">
         <v>-3.8</v>
       </c>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-      <c r="AY10" s="0" t="n">
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AY10" s="2" t="n">
         <v>-14.5</v>
       </c>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="2"/>
-      <c r="BG10" s="2"/>
-      <c r="BH10" s="2"/>
-      <c r="BK10" s="2"/>
-      <c r="BM10" s="0" t="n">
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BM10" s="2" t="n">
         <v>-8.5</v>
       </c>
     </row>
@@ -1418,85 +1422,85 @@
       <c r="A11" s="1" t="n">
         <v>44150</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="0" t="n">
+      <c r="B11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="F11" s="2" t="n">
         <v>-13.3</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="2" t="n">
         <v>-23.3</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="2" t="n">
         <v>-23.3</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="2" t="n">
         <v>6.2</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11" s="2" t="n">
         <v>-38.2</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11" s="2" t="n">
         <v>-19.3</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q11" s="2" t="n">
         <v>-5.7</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11" s="2" t="n">
         <v>0.9</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="S11" s="2" t="n">
         <v>0.9</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="T11" s="2" t="n">
         <v>-15.6</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="U11" s="2" t="n">
         <v>13.8</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11" s="2" t="n">
         <v>13.8</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AB11" s="2" t="n">
         <v>-14.55</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AC11" s="2" t="n">
         <v>-74.4</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AF11" s="2" t="n">
         <v>-19</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AG11" s="2" t="n">
         <v>-19</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AH11" s="2" t="n">
         <v>-19</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AI11" s="2" t="n">
         <v>-19</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AJ11" s="2" t="n">
         <v>-19</v>
       </c>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="0" t="n">
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="2" t="n">
         <v>-10.3</v>
       </c>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AY11" s="0" t="n">
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AY11" s="2" t="n">
         <v>-2</v>
       </c>
-      <c r="AZ11" s="3"/>
-      <c r="BA11" s="3"/>
-      <c r="BG11" s="3"/>
-      <c r="BH11" s="3"/>
-      <c r="BK11" s="3"/>
-      <c r="BM11" s="0" t="n">
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BG11" s="4"/>
+      <c r="BH11" s="4"/>
+      <c r="BK11" s="4"/>
+      <c r="BM11" s="2" t="n">
         <v>-12.1</v>
       </c>
     </row>
@@ -1504,85 +1508,85 @@
       <c r="A12" s="1" t="n">
         <v>44180</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="0" t="n">
+      <c r="B12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="F12" s="2" t="n">
         <v>-14</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="2" t="n">
         <v>-25</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="2" t="n">
         <v>-22.6</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="2" t="n">
         <v>4.3</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12" s="2" t="n">
         <v>-12.1</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12" s="2" t="n">
         <v>-16.4</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12" s="2" t="n">
         <v>-4.8</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12" s="2" t="n">
         <v>1.7</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="S12" s="2" t="n">
         <v>1.7</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="T12" s="2" t="n">
         <v>-5.8</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="U12" s="2" t="n">
         <v>6.4</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="V12" s="2" t="n">
         <v>6.4</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AB12" s="2" t="n">
         <v>-14.5</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AC12" s="2" t="n">
         <v>-89</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AF12" s="2" t="n">
         <v>-16.5</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AG12" s="2" t="n">
         <v>-16.5</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AH12" s="2" t="n">
         <v>-16.5</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AI12" s="2" t="n">
         <v>-16.5</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AJ12" s="2" t="n">
         <v>-16.5</v>
       </c>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="0" t="n">
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="2" t="n">
         <v>-6.5</v>
       </c>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AY12" s="0" t="n">
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AY12" s="2" t="n">
         <v>-11.7</v>
       </c>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BK12" s="3"/>
-      <c r="BM12" s="0" t="n">
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BG12" s="4"/>
+      <c r="BH12" s="4"/>
+      <c r="BK12" s="4"/>
+      <c r="BM12" s="2" t="n">
         <v>-8.4</v>
       </c>
     </row>
@@ -1590,85 +1594,85 @@
       <c r="A13" s="1" t="n">
         <v>44211</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="F13" s="0" t="n">
+      <c r="B13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="F13" s="2" t="n">
         <v>-12.1</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="2" t="n">
         <v>-23.3</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="2" t="n">
         <v>-14.2</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="2" t="n">
         <v>3.8</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" s="2" t="n">
         <v>-5</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" s="2" t="n">
         <v>-12.8</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13" s="2" t="n">
         <v>-13.1</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="R13" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="S13" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="T13" s="2" t="n">
         <v>-8.5</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="U13" s="2" t="n">
         <v>11.6</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="V13" s="2" t="n">
         <v>11.6</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AB13" s="2" t="n">
         <v>-9</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AC13" s="2" t="n">
         <v>-68.2</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AF13" s="2" t="n">
         <v>-13.3</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AG13" s="2" t="n">
         <v>-13.3</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AH13" s="2" t="n">
         <v>-13.3</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AI13" s="2" t="n">
         <v>-13.3</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AJ13" s="2" t="n">
         <v>-13.3</v>
       </c>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="0" t="n">
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="2" t="n">
         <v>-3.9</v>
       </c>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AY13" s="0" t="n">
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AY13" s="2" t="n">
         <v>-30</v>
       </c>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
-      <c r="BK13" s="3"/>
-      <c r="BM13" s="0" t="n">
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BK13" s="4"/>
+      <c r="BM13" s="2" t="n">
         <v>-7.5</v>
       </c>
     </row>
@@ -1676,85 +1680,85 @@
       <c r="A14" s="1" t="n">
         <v>44242</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="F14" s="0" t="n">
+      <c r="B14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="F14" s="2" t="n">
         <v>-9.3</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="2" t="n">
         <v>-29.4</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="2" t="n">
         <v>-4.3</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="2" t="n">
         <v>-2.3</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14" s="2" t="n">
         <v>-6.4</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14" s="2" t="n">
         <v>-7.4</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14" s="2" t="n">
         <v>-12.1</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="S14" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="T14" s="2" t="n">
         <v>-12.2</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="U14" s="2" t="n">
         <v>6.7</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="V14" s="2" t="n">
         <v>6.7</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AB14" s="2" t="n">
         <v>-3.65</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AC14" s="2" t="n">
         <v>-55.2</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AF14" s="2" t="n">
         <v>-10.6</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AG14" s="2" t="n">
         <v>-10.6</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AH14" s="2" t="n">
         <v>-10.6</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AI14" s="2" t="n">
         <v>-10.6</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>-10.6</v>
       </c>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="0" t="n">
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AY14" s="0" t="n">
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AY14" s="2" t="n">
         <v>-16.5</v>
       </c>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BG14" s="3"/>
-      <c r="BH14" s="3"/>
-      <c r="BK14" s="3"/>
-      <c r="BM14" s="0" t="n">
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BK14" s="4"/>
+      <c r="BM14" s="2" t="n">
         <v>-4.4</v>
       </c>
     </row>
@@ -1762,85 +1766,85 @@
       <c r="A15" s="1" t="n">
         <v>44270</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="0" t="n">
+      <c r="B15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="F15" s="2" t="n">
         <v>-9.6</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="2" t="n">
         <v>-22.3</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="2" t="n">
         <v>-10.5</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15" s="2" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15" s="2" t="n">
         <v>-2.1</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="R15" s="2" t="n">
         <v>4.6</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="S15" s="2" t="n">
         <v>4.6</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="T15" s="2" t="n">
         <v>-6.8</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="U15" s="2" t="n">
         <v>-5.7</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="V15" s="2" t="n">
         <v>-5.7</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AB15" s="2" t="n">
         <v>-2.6</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AC15" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AF15" s="2" t="n">
         <v>3.7</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AG15" s="2" t="n">
         <v>3.7</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AH15" s="2" t="n">
         <v>3.7</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AI15" s="2" t="n">
         <v>3.7</v>
       </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>3.7</v>
       </c>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="0" t="n">
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="2" t="n">
         <v>38.9</v>
       </c>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AY15" s="0" t="n">
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AY15" s="2" t="n">
         <v>-1.1</v>
       </c>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BK15" s="3"/>
-      <c r="BM15" s="0" t="n">
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BK15" s="4"/>
+      <c r="BM15" s="2" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1848,85 +1852,85 @@
       <c r="A16" s="1" t="n">
         <v>44301</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="0" t="n">
+      <c r="B16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="F16" s="2" t="n">
         <v>-5.4</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="2" t="n">
         <v>-19.9</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="2" t="n">
         <v>6.9</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16" s="2" t="n">
         <v>4.2</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16" s="2" t="n">
         <v>4.9</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="Q16" s="2" t="n">
         <v>7.8</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="R16" s="2" t="n">
         <v>7.6</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="S16" s="2" t="n">
         <v>7.6</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="T16" s="2" t="n">
         <v>-5.1</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="U16" s="2" t="n">
         <v>19.5</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="V16" s="2" t="n">
         <v>19.5</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AB16" s="2" t="n">
         <v>-0.3</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AC16" s="2" t="n">
         <v>-4.6</v>
       </c>
-      <c r="AF16" s="0" t="n">
+      <c r="AF16" s="2" t="n">
         <v>5.1</v>
       </c>
-      <c r="AG16" s="0" t="n">
+      <c r="AG16" s="2" t="n">
         <v>5.1</v>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AH16" s="2" t="n">
         <v>5.1</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AI16" s="2" t="n">
         <v>5.1</v>
       </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>5.1</v>
       </c>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="0" t="n">
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="2" t="n">
         <v>56.4</v>
       </c>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AY16" s="0" t="n">
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AY16" s="2" t="n">
         <v>8.4</v>
       </c>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="3"/>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="3"/>
-      <c r="BK16" s="3"/>
-      <c r="BM16" s="0" t="n">
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="4"/>
+      <c r="BK16" s="4"/>
+      <c r="BM16" s="2" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -1934,85 +1938,85 @@
       <c r="A17" s="1" t="n">
         <v>44331</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="0" t="n">
+      <c r="B17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="F17" s="2" t="n">
         <v>-9.5</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="2" t="n">
         <v>-13.7</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="2" t="n">
         <v>8.8</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17" s="2" t="n">
         <v>-2.9</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17" s="2" t="n">
         <v>9.9</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="Q17" s="2" t="n">
         <v>14.6</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="R17" s="2" t="n">
         <v>8.3</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="S17" s="2" t="n">
         <v>8.3</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="T17" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="U17" s="2" t="n">
         <v>3.4</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="V17" s="2" t="n">
         <v>3.4</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AB17" s="2" t="n">
         <v>6.35</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AC17" s="2" t="n">
         <v>-25</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AF17" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AG17" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AH17" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AI17" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="0" t="n">
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="2" t="n">
         <v>40.3</v>
       </c>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AY17" s="0" t="n">
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AY17" s="2" t="n">
         <v>6.6</v>
       </c>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="3"/>
-      <c r="BK17" s="3"/>
-      <c r="BM17" s="0" t="n">
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BK17" s="4"/>
+      <c r="BM17" s="2" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2020,85 +2024,85 @@
       <c r="A18" s="1" t="n">
         <v>44362</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="0" t="n">
+      <c r="B18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="F18" s="2" t="n">
         <v>-5.7</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="2" t="n">
         <v>-1.1</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="2" t="n">
         <v>16.9</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="2" t="n">
         <v>11.9</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18" s="2" t="n">
         <v>23.9</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="P18" s="2" t="n">
         <v>13.3</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="Q18" s="2" t="n">
         <v>19.6</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="R18" s="2" t="n">
         <v>7.9</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="S18" s="2" t="n">
         <v>7.9</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="T18" s="2" t="n">
         <v>-1.7</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="U18" s="2" t="n">
         <v>3.3</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="V18" s="2" t="n">
         <v>3.3</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AB18" s="2" t="n">
         <v>3.65</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AC18" s="2" t="n">
         <v>-33.4</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AF18" s="2" t="n">
         <v>20.8</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AG18" s="2" t="n">
         <v>20.8</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AH18" s="2" t="n">
         <v>20.8</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AI18" s="2" t="n">
         <v>20.8</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>20.8</v>
       </c>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="0" t="n">
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="2" t="n">
         <v>43.2</v>
       </c>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AY18" s="0" t="n">
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AY18" s="2" t="n">
         <v>26.2</v>
       </c>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BK18" s="3"/>
-      <c r="BM18" s="0" t="n">
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BK18" s="4"/>
+      <c r="BM18" s="2" t="n">
         <v>9.8</v>
       </c>
     </row>
@@ -2106,85 +2110,85 @@
       <c r="A19" s="1" t="n">
         <v>44392</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="0" t="n">
+      <c r="B19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="F19" s="2" t="n">
         <v>-4.1</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="2" t="n">
         <v>-7.4</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="2" t="n">
         <v>19.4</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19" s="2" t="n">
         <v>18.7</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="P19" s="2" t="n">
         <v>14.5</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="Q19" s="2" t="n">
         <v>22.7</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="R19" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="S19" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="T19" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="U19" s="2" t="n">
         <v>12.1</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="V19" s="2" t="n">
         <v>12.1</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AB19" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AC19" s="2" t="n">
         <v>-25.4</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AF19" s="2" t="n">
         <v>25.2</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AG19" s="2" t="n">
         <v>25.2</v>
       </c>
-      <c r="AH19" s="0" t="n">
+      <c r="AH19" s="2" t="n">
         <v>25.2</v>
       </c>
-      <c r="AI19" s="0" t="n">
+      <c r="AI19" s="2" t="n">
         <v>25.2</v>
       </c>
-      <c r="AJ19" s="0" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>25.2</v>
       </c>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="0" t="n">
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AY19" s="0" t="n">
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AY19" s="2" t="n">
         <v>20.4</v>
       </c>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BG19" s="3"/>
-      <c r="BH19" s="3"/>
-      <c r="BK19" s="3"/>
-      <c r="BM19" s="0" t="n">
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+      <c r="BK19" s="4"/>
+      <c r="BM19" s="2" t="n">
         <v>10.1</v>
       </c>
     </row>
@@ -2192,85 +2196,85 @@
       <c r="A20" s="1" t="n">
         <v>44423</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="0" t="n">
+      <c r="B20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="F20" s="2" t="n">
         <v>-3.5</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="2" t="n">
         <v>-16.5</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="2" t="n">
         <v>4.2</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="2" t="n">
         <v>17.2</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="N20" s="2" t="n">
         <v>18.1</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="P20" s="2" t="n">
         <v>14.7</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="Q20" s="2" t="n">
         <v>27.4</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="R20" s="2" t="n">
         <v>8.9</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="S20" s="2" t="n">
         <v>8.9</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="T20" s="2" t="n">
         <v>7.7</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="U20" s="2" t="n">
         <v>7.9</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="V20" s="2" t="n">
         <v>7.9</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AB20" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AC20" s="2" t="n">
         <v>-17.1</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AF20" s="2" t="n">
         <v>18.2</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AG20" s="2" t="n">
         <v>18.2</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AH20" s="2" t="n">
         <v>18.2</v>
       </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AI20" s="2" t="n">
         <v>18.2</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>18.2</v>
       </c>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="0" t="n">
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="2" t="n">
         <v>31.5</v>
       </c>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AY20" s="0" t="n">
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AY20" s="2" t="n">
         <v>13.3</v>
       </c>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
-      <c r="BG20" s="3"/>
-      <c r="BH20" s="3"/>
-      <c r="BK20" s="3"/>
-      <c r="BM20" s="0" t="n">
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BG20" s="4"/>
+      <c r="BH20" s="4"/>
+      <c r="BK20" s="4"/>
+      <c r="BM20" s="2" t="n">
         <v>7.6</v>
       </c>
     </row>
@@ -2278,85 +2282,85 @@
       <c r="A21" s="1" t="n">
         <v>44454</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="0" t="n">
+      <c r="B21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="F21" s="2" t="n">
         <v>-6.6</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="2" t="n">
         <v>-9.7</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="2" t="n">
         <v>15.8</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="N21" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="P21" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="Q21" s="2" t="n">
         <v>20.2</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="R21" s="2" t="n">
         <v>3.8</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="S21" s="2" t="n">
         <v>3.8</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="T21" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="U21" s="2" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="V21" s="2" t="n">
         <v>-9.6</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AB21" s="2" t="n">
         <v>1.75</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AC21" s="2" t="n">
         <v>-3.8</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AF21" s="2" t="n">
         <v>6.2</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AG21" s="2" t="n">
         <v>6.2</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AH21" s="2" t="n">
         <v>6.2</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AI21" s="2" t="n">
         <v>6.2</v>
       </c>
-      <c r="AJ21" s="0" t="n">
+      <c r="AJ21" s="2" t="n">
         <v>6.2</v>
       </c>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="0" t="n">
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="2" t="n">
         <v>33.4</v>
       </c>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AY21" s="0" t="n">
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AY21" s="2" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="3"/>
-      <c r="BG21" s="3"/>
-      <c r="BH21" s="3"/>
-      <c r="BK21" s="3"/>
-      <c r="BM21" s="0" t="n">
+      <c r="AZ21" s="4"/>
+      <c r="BA21" s="4"/>
+      <c r="BG21" s="4"/>
+      <c r="BH21" s="4"/>
+      <c r="BK21" s="4"/>
+      <c r="BM21" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2364,85 +2368,85 @@
       <c r="A22" s="1" t="n">
         <v>44484</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="F22" s="0" t="n">
+      <c r="B22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="F22" s="2" t="n">
         <v>-4.9</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="2" t="n">
         <v>-4.3</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22" s="2" t="n">
         <v>18.6</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="N22" s="2" t="n">
         <v>18.5</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="P22" s="2" t="n">
         <v>12.7</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="Q22" s="2" t="n">
         <v>19.9</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="R22" s="2" t="n">
         <v>-9.3</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="S22" s="2" t="n">
         <v>-9.3</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="T22" s="2" t="n">
         <v>4.2</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="U22" s="2" t="n">
         <v>-16.7</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="V22" s="2" t="n">
         <v>-16.7</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AB22" s="2" t="n">
         <v>2.55</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AC22" s="2" t="n">
         <v>-20.8</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AF22" s="2" t="n">
         <v>16.9</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AG22" s="2" t="n">
         <v>16.9</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AH22" s="2" t="n">
         <v>16.9</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AI22" s="2" t="n">
         <v>16.9</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AJ22" s="2" t="n">
         <v>16.9</v>
       </c>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="0" t="n">
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="2" t="n">
         <v>32.6</v>
       </c>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AY22" s="0" t="n">
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AY22" s="2" t="n">
         <v>2.8</v>
       </c>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3"/>
-      <c r="BK22" s="3"/>
-      <c r="BM22" s="0" t="n">
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BG22" s="4"/>
+      <c r="BH22" s="4"/>
+      <c r="BK22" s="4"/>
+      <c r="BM22" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2450,70 +2454,70 @@
       <c r="A23" s="1" t="n">
         <v>44515</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="2" t="n">
         <v>4.1</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="2" t="n">
         <v>-4.5</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="2" t="n">
         <v>15.5</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23" s="2" t="n">
         <v>14.6</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N23" s="2" t="n">
         <v>32.8</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="P23" s="2" t="n">
         <v>11.1</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="Q23" s="2" t="n">
         <v>14.7</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="R23" s="2" t="n">
         <v>-2.6</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="S23" s="2" t="n">
         <v>-2.6</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="T23" s="2" t="n">
         <v>4.9</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="U23" s="2" t="n">
         <v>-20.4</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="V23" s="2" t="n">
         <v>-20.4</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AB23" s="2" t="n">
         <v>4.65</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AC23" s="2" t="n">
         <v>-27.7</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AF23" s="2" t="n">
         <v>21.8</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AG23" s="2" t="n">
         <v>21.8</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AH23" s="2" t="n">
         <v>21.8</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AI23" s="2" t="n">
         <v>21.8</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AJ23" s="2" t="n">
         <v>21.8</v>
       </c>
-      <c r="AO23" s="0" t="n">
+      <c r="AO23" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="AY23" s="0" t="n">
+      <c r="AY23" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="BM23" s="0" t="n">
+      <c r="BM23" s="2" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -2521,198 +2525,198 @@
       <c r="A24" s="1" t="n">
         <v>44545</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="F24" s="0" t="n">
+      <c r="B24" s="4"/>
+      <c r="F24" s="2" t="n">
         <v>2.6</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="2" t="n">
         <v>-15</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="2" t="n">
         <v>22.1</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24" s="2" t="n">
         <v>16.5</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="N24" s="2" t="n">
         <v>23.7</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="P24" s="2" t="n">
         <v>9.8</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="Q24" s="2" t="n">
         <v>8.5</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="R24" s="2" t="n">
         <v>-8.7</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="S24" s="2" t="n">
         <v>-8.7</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="T24" s="2" t="n">
         <v>7.8</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="U24" s="2" t="n">
         <v>-20</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="V24" s="2" t="n">
         <v>-20</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AB24" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AC24" s="2" t="n">
         <v>-62.4</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AF24" s="2" t="n">
         <v>7.1</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AG24" s="2" t="n">
         <v>7.1</v>
       </c>
-      <c r="AH24" s="0" t="n">
+      <c r="AH24" s="2" t="n">
         <v>7.1</v>
       </c>
-      <c r="AI24" s="0" t="n">
+      <c r="AI24" s="2" t="n">
         <v>7.1</v>
       </c>
-      <c r="AJ24" s="0" t="n">
+      <c r="AJ24" s="2" t="n">
         <v>7.1</v>
       </c>
-      <c r="AO24" s="0" t="n">
+      <c r="AO24" s="2" t="n">
         <v>13.2</v>
       </c>
-      <c r="AY24" s="0" t="n">
+      <c r="AY24" s="2" t="n">
         <v>-6.3</v>
       </c>
-      <c r="BM24" s="0" t="n">
+      <c r="BM24" s="2" t="n">
         <v>3.6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="3"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="3"/>
-      <c r="C35" s="7"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3"/>
-      <c r="C36" s="5"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="3"/>
-      <c r="C48" s="6"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="3"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="3"/>
-      <c r="C50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="3"/>
-      <c r="C51" s="6"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="3"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
